--- a/Bi_Team_Project/Reports/616057.xlsx
+++ b/Bi_Team_Project/Reports/616057.xlsx
@@ -88,7 +88,7 @@
     <t>Campaign Report date</t>
   </si>
   <si>
-    <t>2018-07-31 to 2018-08-23</t>
+    <t>2018-07-31 to 2018-08-26</t>
   </si>
   <si>
     <t>Agency Name</t>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>8981</v>
+        <v>126934</v>
       </c>
       <c r="M10" s="3">
-        <v>0.009579733333333333</v>
+        <v>0.1353962666666667</v>
       </c>
       <c r="N10" s="3">
-        <v>1436.96016749565</v>
+        <v>20309.4423673191</v>
       </c>
     </row>
     <row r="11" spans="2:14">
